--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-28.xlsx
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G2" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -783,10 +783,10 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O2" t="n">
         <v>1.38</v>
@@ -801,7 +801,7 @@
         <v>1.29</v>
       </c>
       <c r="S2" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.86</v>
@@ -819,52 +819,52 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
         <v>55</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>30</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>44</v>
       </c>
       <c r="AM2" t="n">
         <v>140</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AO2" t="n">
         <v>65</v>
@@ -873,59 +873,59 @@
         <v>9</v>
       </c>
       <c r="AQ2" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.03</v>
+        <v>18</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.03</v>
+        <v>4.1</v>
       </c>
       <c r="AT2" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="AU2" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AZ2" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="BA2" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.03</v>
+        <v>3.9</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.03</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.03</v>
+        <v>4.2</v>
       </c>
       <c r="BF2" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="BG2" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -956,25 +956,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="G3" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
         <v>2.82</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.33</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -986,10 +986,10 @@
         <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
         <v>1.33</v>
@@ -1004,122 +1004,122 @@
         <v>2.12</v>
       </c>
       <c r="V3" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="W3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
         <v>16.5</v>
       </c>
       <c r="Y3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB3" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA3" t="n">
+      <c r="AC3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI3" t="n">
         <v>55</v>
       </c>
-      <c r="AB3" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
+        <v>44</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
         <v>48</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>44</v>
       </c>
       <c r="AM3" t="n">
         <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AO3" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AP3" t="n">
         <v>10.5</v>
       </c>
       <c r="AQ3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AV3" t="n">
         <v>10</v>
       </c>
-      <c r="AR3" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>11</v>
-      </c>
       <c r="AW3" t="n">
-        <v>1.03</v>
+        <v>4.5</v>
       </c>
       <c r="AX3" t="n">
         <v>13</v>
       </c>
       <c r="AY3" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ3" t="n">
         <v>13</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.03</v>
+        <v>4.6</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.03</v>
+        <v>4.5</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.03</v>
+        <v>21</v>
       </c>
       <c r="BD3" t="n">
-        <v>30</v>
+        <v>4.5</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.03</v>
+        <v>4.8</v>
       </c>
       <c r="BF3" t="n">
         <v>18</v>
       </c>
       <c r="BG3" t="n">
-        <v>24</v>
+        <v>4.4</v>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.4</v>
@@ -1183,13 +1183,13 @@
         <v>1.98</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R4" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T4" t="n">
         <v>1.78</v>
@@ -1198,10 +1198,10 @@
         <v>2.16</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="X4" t="n">
         <v>14.5</v>
@@ -1210,7 +1210,7 @@
         <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
         <v>90</v>
@@ -1225,7 +1225,7 @@
         <v>16.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF4" t="n">
         <v>12.5</v>
@@ -1252,7 +1252,7 @@
         <v>100</v>
       </c>
       <c r="AN4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
         <v>55</v>
@@ -1267,10 +1267,10 @@
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU4" t="n">
         <v>7.6</v>
@@ -1279,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="AW4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AX4" t="n">
         <v>11.5</v>
@@ -1291,7 +1291,7 @@
         <v>17</v>
       </c>
       <c r="BA4" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1303,17 +1303,17 @@
         <v>32</v>
       </c>
       <c r="BE4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="BF4" t="n">
         <v>13</v>
       </c>
       <c r="BG4" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
         <v>4.7</v>
       </c>
       <c r="G5" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
         <v>1.7</v>
@@ -1368,146 +1368,146 @@
         <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>7.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="S5" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="U5" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="V5" t="n">
         <v>2.34</v>
       </c>
       <c r="W5" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.18</v>
+        <v>7.4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.18</v>
+        <v>15</v>
       </c>
       <c r="AR5" t="n">
-        <v>1.18</v>
+        <v>13.5</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.18</v>
+        <v>17.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.18</v>
+        <v>24</v>
       </c>
       <c r="AU5" t="n">
-        <v>1.18</v>
+        <v>11.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.18</v>
+        <v>10</v>
       </c>
       <c r="AW5" t="n">
-        <v>1.18</v>
+        <v>13.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.18</v>
+        <v>7.6</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.18</v>
+        <v>16.5</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.18</v>
+        <v>14</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.18</v>
+        <v>19</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.18</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BC5" t="n">
-        <v>1.18</v>
+        <v>7.6</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.18</v>
+        <v>7.4</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.18</v>
+        <v>7.8</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.18</v>
+        <v>19</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.01</v>
+        <v>5.1</v>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1538,25 +1538,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H6" t="n">
         <v>3.45</v>
       </c>
       <c r="I6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J6" t="n">
         <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
         <v>1.06</v>
@@ -1565,7 +1565,7 @@
         <v>4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P6" t="n">
         <v>2.06</v>
@@ -1583,19 +1583,19 @@
         <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
         <v>1.37</v>
       </c>
       <c r="W6" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z6" t="n">
         <v>32</v>
@@ -1619,13 +1619,13 @@
         <v>15.5</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>19</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
         <v>32</v>
@@ -1634,16 +1634,16 @@
         <v>26</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
         <v>95</v>
       </c>
       <c r="AN6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO6" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1667,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.6</v>
+        <v>32</v>
       </c>
       <c r="AX6" t="n">
         <v>12.5</v>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G7" t="n">
         <v>2.64</v>
       </c>
       <c r="H7" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="I7" t="n">
         <v>2.72</v>
@@ -1750,7 +1750,7 @@
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
@@ -1762,16 +1762,16 @@
         <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R7" t="n">
         <v>1.61</v>
       </c>
       <c r="S7" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="T7" t="n">
         <v>1.54</v>
@@ -1780,31 +1780,31 @@
         <v>2.6</v>
       </c>
       <c r="V7" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>1.6</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="Z7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="n">
         <v>44</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>970</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>970</v>
       </c>
       <c r="AE7" t="n">
         <v>29</v>
@@ -1813,70 +1813,70 @@
         <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
         <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
         <v>27</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM7" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AO7" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AP7" t="n">
-        <v>20</v>
+        <v>3.3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14</v>
+        <v>2.02</v>
       </c>
       <c r="AR7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AS7" t="n">
-        <v>30</v>
+        <v>3.45</v>
       </c>
       <c r="AT7" t="n">
         <v>14</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>2.28</v>
       </c>
       <c r="AW7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX7" t="n">
         <v>18</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>2.72</v>
       </c>
       <c r="AZ7" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BA7" t="n">
         <v>23</v>
       </c>
       <c r="BB7" t="n">
-        <v>7.4</v>
+        <v>1.39</v>
       </c>
       <c r="BC7" t="n">
         <v>21</v>
@@ -1885,17 +1885,17 @@
         <v>24</v>
       </c>
       <c r="BE7" t="n">
-        <v>42</v>
+        <v>1.39</v>
       </c>
       <c r="BF7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="BG7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2508,22 +2508,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="I11" t="n">
-        <v>1000</v>
+        <v>2.74</v>
       </c>
       <c r="J11" t="n">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2671,7 +2671,7 @@
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
         <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="H12" t="n">
         <v>5.8</v>
@@ -2714,7 +2714,7 @@
         <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>2.96</v>
       </c>
       <c r="K12" t="n">
         <v>3.85</v>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -2896,22 +2896,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H13" t="n">
         <v>2.86</v>
       </c>
       <c r="I13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2929,7 +2929,7 @@
         <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3090,13 +3090,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="G14" t="n">
         <v>870</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>1.27</v>
       </c>
       <c r="I14" t="n">
         <v>960</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
       </c>
       <c r="BH15" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3478,22 +3478,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G16" t="n">
         <v>5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="I16" t="n">
         <v>2.46</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
       </c>
       <c r="BH16" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G17" t="n">
         <v>3.55</v>
@@ -3687,7 +3687,7 @@
         <v>3.6</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4066,13 +4066,13 @@
         <v>3.2</v>
       </c>
       <c r="H19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="I19" t="n">
         <v>2.52</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K19" t="n">
         <v>3.9</v>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="BH19" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4254,19 +4254,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="G20" t="n">
-        <v>1000</v>
+        <v>1.82</v>
       </c>
       <c r="H20" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="I20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.01</v>
+        <v>3.6</v>
       </c>
       <c r="K20" t="n">
         <v>950</v>
@@ -4284,10 +4284,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="BH20" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4460,7 +4460,7 @@
         <v>4.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -4478,7 +4478,7 @@
         <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Q21" t="n">
         <v>1.87</v>
@@ -4490,7 +4490,7 @@
         <v>3.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U21" t="n">
         <v>2.18</v>
@@ -4520,16 +4520,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>60</v>
       </c>
       <c r="AF21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
         <v>18.5</v>
@@ -4559,7 +4559,7 @@
         <v>15</v>
       </c>
       <c r="AQ21" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AR21" t="n">
         <v>32</v>
@@ -4571,7 +4571,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
@@ -4580,16 +4580,16 @@
         <v>48</v>
       </c>
       <c r="AX21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AY21" t="n">
         <v>9.4</v>
       </c>
       <c r="AZ21" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="BB21" t="n">
         <v>18.5</v>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="BH21" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4642,22 +4642,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.05</v>
+        <v>2.84</v>
       </c>
       <c r="J22" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -4672,10 +4672,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.24</v>
+        <v>2.42</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="BH22" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
         <v>1.25</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -4999,7 +4999,7 @@
       </c>
       <c r="BH23" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5030,13 +5030,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G24" t="n">
         <v>2.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
         <v>3.35</v>
@@ -5060,13 +5060,13 @@
         <v>1.47</v>
       </c>
       <c r="P24" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q24" t="n">
         <v>2.42</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
         <v>4.7</v>
@@ -5090,10 +5090,10 @@
         <v>10.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AA24" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="n">
         <v>8.6</v>
@@ -5102,22 +5102,22 @@
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH24" t="n">
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="n">
         <v>38</v>
@@ -5126,7 +5126,7 @@
         <v>34</v>
       </c>
       <c r="AL24" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM24" t="n">
         <v>160</v>
@@ -5135,19 +5135,19 @@
         <v>34</v>
       </c>
       <c r="AO24" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AP24" t="n">
         <v>9.4</v>
       </c>
       <c r="AQ24" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AR24" t="n">
         <v>18.5</v>
       </c>
       <c r="AS24" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
@@ -5159,10 +5159,10 @@
         <v>13</v>
       </c>
       <c r="AW24" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AX24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY24" t="n">
         <v>11</v>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="BH24" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5224,22 +5224,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="G25" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
-        <v>3.25</v>
+        <v>1.04</v>
       </c>
       <c r="I25" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>1.01</v>
       </c>
       <c r="K25" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -5254,10 +5254,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.92</v>
+        <v>1.24</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.63</v>
+        <v>1.01</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="BH25" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5418,22 +5418,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.26</v>
+        <v>1.2</v>
       </c>
       <c r="G26" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="H26" t="n">
-        <v>2.46</v>
+        <v>1.2</v>
       </c>
       <c r="I26" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J26" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="K26" t="n">
-        <v>6.8</v>
+        <v>950</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -5448,10 +5448,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>1.94</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="BH26" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G27" t="n">
         <v>2.14</v>
@@ -5624,7 +5624,7 @@
         <v>4.3</v>
       </c>
       <c r="J27" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K27" t="n">
         <v>4.3</v>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="BH27" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.56</v>
+        <v>2.82</v>
       </c>
       <c r="Q28" t="n">
         <v>1.38</v>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="BH28" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6000,7 +6000,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="G29" t="n">
         <v>1.84</v>
@@ -6009,7 +6009,7 @@
         <v>4.7</v>
       </c>
       <c r="I29" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J29" t="n">
         <v>3.8</v>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="BH29" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6194,22 +6194,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="G30" t="n">
         <v>2.96</v>
       </c>
       <c r="H30" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J30" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K30" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -6224,7 +6224,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="Q30" t="n">
         <v>2.16</v>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="BH30" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6388,19 +6388,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="I31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="K31" t="n">
         <v>4.6</v>
@@ -6551,7 +6551,7 @@
       </c>
       <c r="BH31" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6612,7 +6612,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q32" t="n">
         <v>2.12</v>
@@ -6745,7 +6745,7 @@
       </c>
       <c r="BH32" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6776,19 +6776,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.04</v>
+        <v>1.51</v>
       </c>
       <c r="G33" t="n">
-        <v>1000</v>
+        <v>1.93</v>
       </c>
       <c r="H33" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="I33" t="n">
         <v>1000</v>
       </c>
       <c r="J33" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>950</v>
@@ -6806,10 +6806,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1.07</v>
+        <v>1.69</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -6939,7 +6939,7 @@
       </c>
       <c r="BH33" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -6970,22 +6970,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="G34" t="n">
         <v>4.8</v>
       </c>
       <c r="H34" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="I34" t="n">
         <v>2.48</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -7003,7 +7003,7 @@
         <v>1.94</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -7133,7 +7133,7 @@
       </c>
       <c r="BH34" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -7164,22 +7164,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2.62</v>
+        <v>1.17</v>
       </c>
       <c r="G35" t="n">
-        <v>3.75</v>
+        <v>4.3</v>
       </c>
       <c r="H35" t="n">
-        <v>2.28</v>
+        <v>1.17</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K35" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -7194,10 +7194,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>2.08</v>
+        <v>1.24</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="BH35" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="BH36" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       </c>
       <c r="BH37" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -7909,7 +7909,7 @@
       </c>
       <c r="BH38" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
       </c>
       <c r="BH39" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -8134,22 +8134,22 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="G40" t="n">
-        <v>2.88</v>
+        <v>1000</v>
       </c>
       <c r="H40" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="I40" t="n">
-        <v>3.95</v>
+        <v>1000</v>
       </c>
       <c r="J40" t="n">
-        <v>3.15</v>
+        <v>1.01</v>
       </c>
       <c r="K40" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -8164,10 +8164,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.87</v>
+        <v>1.24</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.68</v>
+        <v>1.01</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="BH40" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -8340,7 +8340,7 @@
         <v>2.22</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K41" t="n">
         <v>3.6</v>
@@ -8491,7 +8491,7 @@
       </c>
       <c r="BH41" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
         <v>1.57</v>
       </c>
       <c r="G42" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H42" t="n">
         <v>6.4</v>
@@ -8534,10 +8534,10 @@
         <v>8.6</v>
       </c>
       <c r="J42" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K42" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="BH42" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -8722,16 +8722,16 @@
         <v>2.98</v>
       </c>
       <c r="H43" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="I43" t="n">
         <v>3.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="K43" t="n">
-        <v>950</v>
+        <v>3.85</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -8746,10 +8746,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -8879,7 +8879,7 @@
       </c>
       <c r="BH43" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
         <v>1.42</v>
       </c>
       <c r="G44" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H44" t="n">
         <v>10</v>
@@ -8946,7 +8946,7 @@
         <v>2.08</v>
       </c>
       <c r="R44" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="S44" t="n">
         <v>3.85</v>
@@ -8955,7 +8955,7 @@
         <v>2.46</v>
       </c>
       <c r="U44" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>12</v>
       </c>
       <c r="AQ44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR44" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AS44" t="n">
         <v>16.5</v>
@@ -9039,7 +9039,7 @@
         <v>32</v>
       </c>
       <c r="AW44" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AX44" t="n">
         <v>6.6</v>
@@ -9063,17 +9063,17 @@
         <v>29</v>
       </c>
       <c r="BE44" t="n">
-        <v>110</v>
+        <v>15.5</v>
       </c>
       <c r="BF44" t="n">
         <v>7.4</v>
       </c>
       <c r="BG44" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="BH44" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -9104,22 +9104,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="G45" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="H45" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="I45" t="n">
-        <v>3.1</v>
+        <v>2.72</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
-        <v>4.7</v>
+        <v>3.85</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -9137,7 +9137,7 @@
         <v>1.81</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -9267,7 +9267,7 @@
       </c>
       <c r="BH45" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -9298,22 +9298,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I46" t="n">
         <v>6.2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -9331,7 +9331,7 @@
         <v>1.24</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="BH46" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -9492,22 +9492,22 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.89</v>
+        <v>1.04</v>
       </c>
       <c r="G47" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H47" t="n">
-        <v>3.85</v>
+        <v>1.77</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="J47" t="n">
-        <v>2.82</v>
+        <v>1.77</v>
       </c>
       <c r="K47" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1.59</v>
+        <v>1.25</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="BH47" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -9686,19 +9686,19 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>630</v>
       </c>
       <c r="H48" t="n">
-        <v>1.52</v>
+        <v>1.01</v>
       </c>
       <c r="I48" t="n">
-        <v>4.5</v>
+        <v>740</v>
       </c>
       <c r="J48" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="K48" t="n">
         <v>950</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>1.65</v>
+        <v>1.24</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.9</v>
+        <v>1.01</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="BH48" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -9880,13 +9880,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="G49" t="n">
         <v>1.77</v>
       </c>
       <c r="H49" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="I49" t="n">
         <v>5.2</v>
@@ -9910,7 +9910,7 @@
         <v>1.24</v>
       </c>
       <c r="P49" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="Q49" t="n">
         <v>1.71</v>
@@ -10009,7 +10009,7 @@
         <v>17.5</v>
       </c>
       <c r="AW49" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AX49" t="n">
         <v>10.5</v>
@@ -10043,7 +10043,7 @@
       </c>
       <c r="BH49" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -10128,16 +10128,16 @@
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y50" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z50" t="n">
         <v>21</v>
       </c>
       <c r="AA50" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AB50" t="n">
         <v>10</v>
@@ -10146,7 +10146,7 @@
         <v>7.4</v>
       </c>
       <c r="AD50" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE50" t="n">
         <v>40</v>
@@ -10158,19 +10158,19 @@
         <v>12</v>
       </c>
       <c r="AH50" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI50" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ50" t="n">
         <v>36</v>
       </c>
       <c r="AK50" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL50" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM50" t="n">
         <v>120</v>
@@ -10182,19 +10182,19 @@
         <v>40</v>
       </c>
       <c r="AP50" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>10</v>
       </c>
       <c r="AR50" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AS50" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AT50" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AU50" t="n">
         <v>6.8</v>
@@ -10203,16 +10203,16 @@
         <v>12</v>
       </c>
       <c r="AW50" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AX50" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AY50" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AZ50" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="BA50" t="n">
         <v>28</v>
@@ -10221,7 +10221,7 @@
         <v>21</v>
       </c>
       <c r="BC50" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD50" t="n">
         <v>26</v>
@@ -10237,7 +10237,7 @@
       </c>
       <c r="BH50" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -10298,13 +10298,13 @@
         <v>1.24</v>
       </c>
       <c r="P51" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S51" t="n">
         <v>2.84</v>
@@ -10361,7 +10361,7 @@
         <v>21</v>
       </c>
       <c r="AK51" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL51" t="n">
         <v>30</v>
@@ -10376,7 +10376,7 @@
         <v>48</v>
       </c>
       <c r="AP51" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ51" t="n">
         <v>17</v>
@@ -10403,7 +10403,7 @@
         <v>11</v>
       </c>
       <c r="AY51" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AZ51" t="n">
         <v>15.5</v>
@@ -10418,7 +10418,7 @@
         <v>16</v>
       </c>
       <c r="BD51" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BE51" t="n">
         <v>34</v>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="BH51" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -10468,7 +10468,7 @@
         <v>1.53</v>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I52" t="n">
         <v>7.6</v>
@@ -10501,7 +10501,7 @@
         <v>1.44</v>
       </c>
       <c r="S52" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T52" t="n">
         <v>1.98</v>
@@ -10516,25 +10516,25 @@
         <v>0</v>
       </c>
       <c r="X52" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y52" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z52" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA52" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB52" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC52" t="n">
         <v>10.5</v>
       </c>
       <c r="AD52" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE52" t="n">
         <v>120</v>
@@ -10543,7 +10543,7 @@
         <v>9</v>
       </c>
       <c r="AG52" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH52" t="n">
         <v>25</v>
@@ -10555,19 +10555,19 @@
         <v>13.5</v>
       </c>
       <c r="AK52" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL52" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM52" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN52" t="n">
         <v>7.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AP52" t="n">
         <v>16</v>
@@ -10576,7 +10576,7 @@
         <v>20</v>
       </c>
       <c r="AR52" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AS52" t="n">
         <v>48</v>
@@ -10612,7 +10612,7 @@
         <v>14.5</v>
       </c>
       <c r="BD52" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BE52" t="n">
         <v>42</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="BH52" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -10656,19 +10656,19 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="G53" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H53" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="I53" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="J53" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
         <v>4.1</v>
@@ -10680,13 +10680,13 @@
         <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O53" t="n">
         <v>1.3</v>
       </c>
       <c r="P53" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q53" t="n">
         <v>1.92</v>
@@ -10716,7 +10716,7 @@
         <v>9</v>
       </c>
       <c r="Z53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA53" t="n">
         <v>19</v>
@@ -10761,13 +10761,13 @@
         <v>90</v>
       </c>
       <c r="AO53" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AP53" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ53" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AR53" t="n">
         <v>10</v>
@@ -10788,7 +10788,7 @@
         <v>17</v>
       </c>
       <c r="AX53" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AY53" t="n">
         <v>17.5</v>
@@ -10797,29 +10797,29 @@
         <v>17.5</v>
       </c>
       <c r="BA53" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="BB53" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BC53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD53" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="BE53" t="n">
         <v>40</v>
       </c>
       <c r="BF53" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="BG53" t="n">
         <v>10</v>
       </c>
       <c r="BH53" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -10856,13 +10856,13 @@
         <v>1.45</v>
       </c>
       <c r="H54" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="I54" t="n">
         <v>7.8</v>
       </c>
-      <c r="I54" t="n">
-        <v>8</v>
-      </c>
       <c r="J54" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K54" t="n">
         <v>5.7</v>
@@ -10940,7 +10940,7 @@
         <v>75</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK54" t="n">
         <v>14</v>
@@ -10955,7 +10955,7 @@
         <v>4.6</v>
       </c>
       <c r="AO54" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AP54" t="n">
         <v>29</v>
@@ -10964,7 +10964,7 @@
         <v>32</v>
       </c>
       <c r="AR54" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS54" t="n">
         <v>110</v>
@@ -10979,7 +10979,7 @@
         <v>26</v>
       </c>
       <c r="AW54" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AX54" t="n">
         <v>10.5</v>
@@ -10988,10 +10988,10 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ54" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BA54" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB54" t="n">
         <v>12.5</v>
@@ -11000,7 +11000,7 @@
         <v>12.5</v>
       </c>
       <c r="BD54" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BE54" t="n">
         <v>65</v>
@@ -11009,11 +11009,11 @@
         <v>4.3</v>
       </c>
       <c r="BG54" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="BH54" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -11044,19 +11044,19 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="G55" t="n">
-        <v>1.92</v>
+        <v>1000</v>
       </c>
       <c r="H55" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="I55" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="J55" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="K55" t="n">
         <v>1000</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="BH55" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -11238,13 +11238,13 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="H56" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I56" t="n">
         <v>5</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N56" t="n">
         <v>4.6</v>
@@ -11274,7 +11274,7 @@
         <v>1.8</v>
       </c>
       <c r="R56" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S56" t="n">
         <v>3.05</v>
@@ -11295,25 +11295,25 @@
         <v>18</v>
       </c>
       <c r="Y56" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="Z56" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA56" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB56" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC56" t="n">
         <v>9</v>
       </c>
       <c r="AD56" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE56" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF56" t="n">
         <v>11.5</v>
@@ -11328,7 +11328,7 @@
         <v>65</v>
       </c>
       <c r="AJ56" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK56" t="n">
         <v>17.5</v>
@@ -11343,7 +11343,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO56" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AP56" t="n">
         <v>16</v>
@@ -11352,7 +11352,7 @@
         <v>17</v>
       </c>
       <c r="AR56" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AS56" t="n">
         <v>38</v>
@@ -11367,13 +11367,13 @@
         <v>17</v>
       </c>
       <c r="AW56" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AX56" t="n">
         <v>10.5</v>
       </c>
       <c r="AY56" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AZ56" t="n">
         <v>17.5</v>
@@ -11382,7 +11382,7 @@
         <v>46</v>
       </c>
       <c r="BB56" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BC56" t="n">
         <v>16</v>
@@ -11397,11 +11397,11 @@
         <v>9</v>
       </c>
       <c r="BG56" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="BH56" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -11435,7 +11435,7 @@
         <v>1.31</v>
       </c>
       <c r="G57" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="H57" t="n">
         <v>9</v>
@@ -11462,16 +11462,16 @@
         <v>1.09</v>
       </c>
       <c r="P57" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
         <v>1.3</v>
       </c>
       <c r="R57" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="S57" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T57" t="n">
         <v>1.58</v>
@@ -11486,28 +11486,28 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y57" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="Z57" t="n">
         <v>120</v>
       </c>
       <c r="AA57" t="n">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB57" t="n">
         <v>19</v>
       </c>
       <c r="AC57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AD57" t="n">
         <v>38</v>
       </c>
       <c r="AE57" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF57" t="n">
         <v>13.5</v>
@@ -11516,46 +11516,46 @@
         <v>11.5</v>
       </c>
       <c r="AH57" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI57" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ57" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AK57" t="n">
         <v>13</v>
       </c>
       <c r="AL57" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM57" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AN57" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO57" t="n">
         <v>990</v>
       </c>
       <c r="AP57" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AQ57" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AR57" t="n">
         <v>38</v>
       </c>
       <c r="AS57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AT57" t="n">
         <v>16</v>
       </c>
-      <c r="AT57" t="n">
-        <v>17</v>
-      </c>
       <c r="AU57" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AV57" t="n">
         <v>30</v>
@@ -11570,32 +11570,32 @@
         <v>10.5</v>
       </c>
       <c r="AZ57" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA57" t="n">
         <v>50</v>
       </c>
       <c r="BB57" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="BC57" t="n">
         <v>11.5</v>
       </c>
       <c r="BD57" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BE57" t="n">
         <v>32</v>
       </c>
       <c r="BF57" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="BG57" t="n">
         <v>32</v>
       </c>
       <c r="BH57" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -11626,7 +11626,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G58" t="n">
         <v>3.1</v>
@@ -11789,7 +11789,7 @@
       </c>
       <c r="BH58" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -11820,22 +11820,22 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="G59" t="n">
-        <v>3.35</v>
+        <v>1000</v>
       </c>
       <c r="H59" t="n">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
       <c r="I59" t="n">
-        <v>3.1</v>
+        <v>1000</v>
       </c>
       <c r="J59" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="K59" t="n">
-        <v>7.2</v>
+        <v>950</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -11850,10 +11850,10 @@
         <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>2.34</v>
+        <v>1.25</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
@@ -11983,7 +11983,7 @@
       </c>
       <c r="BH59" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -12177,7 +12177,7 @@
       </c>
       <c r="BH60" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -12241,7 +12241,7 @@
         <v>2.38</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -12371,7 +12371,7 @@
       </c>
       <c r="BH61" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -12402,16 +12402,16 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G62" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I62" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>3.25</v>
@@ -12565,7 +12565,7 @@
       </c>
       <c r="BH62" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -12596,22 +12596,22 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
       </c>
       <c r="H63" t="n">
-        <v>2.62</v>
+        <v>2.54</v>
       </c>
       <c r="I63" t="n">
         <v>3.75</v>
       </c>
       <c r="J63" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K63" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="L63" t="n">
         <v>0</v>
@@ -12759,7 +12759,7 @@
       </c>
       <c r="BH63" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -12796,13 +12796,13 @@
         <v>2.24</v>
       </c>
       <c r="H64" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
         <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K64" t="n">
         <v>3.65</v>
@@ -12814,22 +12814,22 @@
         <v>1.07</v>
       </c>
       <c r="N64" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O64" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P64" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R64" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S64" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
         <v>1.76</v>
@@ -12844,16 +12844,16 @@
         <v>0</v>
       </c>
       <c r="X64" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y64" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AA64" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AB64" t="n">
         <v>11</v>
@@ -12862,10 +12862,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD64" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AE64" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AF64" t="n">
         <v>15</v>
@@ -12877,25 +12877,25 @@
         <v>18</v>
       </c>
       <c r="AI64" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AJ64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK64" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL64" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AM64" t="n">
         <v>110</v>
       </c>
       <c r="AN64" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO64" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AP64" t="n">
         <v>13.5</v>
@@ -12904,10 +12904,10 @@
         <v>13</v>
       </c>
       <c r="AR64" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="AT64" t="n">
         <v>9.4</v>
@@ -12919,7 +12919,7 @@
         <v>13.5</v>
       </c>
       <c r="AW64" t="n">
-        <v>36</v>
+        <v>6.2</v>
       </c>
       <c r="AX64" t="n">
         <v>12.5</v>
@@ -12931,29 +12931,29 @@
         <v>15</v>
       </c>
       <c r="BA64" t="n">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="BB64" t="n">
         <v>23</v>
       </c>
       <c r="BC64" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BD64" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="BE64" t="n">
-        <v>10</v>
+        <v>6.4</v>
       </c>
       <c r="BF64" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="BG64" t="n">
-        <v>29</v>
+        <v>6.2</v>
       </c>
       <c r="BH64" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -12984,10 +12984,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G65" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="H65" t="n">
         <v>4</v>
@@ -12996,10 +12996,10 @@
         <v>5.3</v>
       </c>
       <c r="J65" t="n">
-        <v>3.15</v>
+        <v>2.92</v>
       </c>
       <c r="K65" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -13014,10 +13014,10 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.26</v>
+        <v>1.01</v>
       </c>
       <c r="R65" t="n">
         <v>0</v>
@@ -13147,7 +13147,7 @@
       </c>
       <c r="BH65" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="BH66" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -13535,7 +13535,7 @@
       </c>
       <c r="BH67" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="BH68" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -13923,7 +13923,7 @@
       </c>
       <c r="BH69" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -14117,7 +14117,7 @@
       </c>
       <c r="BH70" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -14148,22 +14148,22 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="G71" t="n">
         <v>3.15</v>
       </c>
       <c r="H71" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I71" t="n">
         <v>3.6</v>
       </c>
       <c r="J71" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K71" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -14178,10 +14178,10 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R71" t="n">
         <v>0</v>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="BH71" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -14357,7 +14357,7 @@
         <v>6.6</v>
       </c>
       <c r="K72" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -14372,10 +14372,10 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.43</v>
+        <v>1.54</v>
       </c>
       <c r="R72" t="n">
         <v>0</v>
@@ -14505,7 +14505,7 @@
       </c>
       <c r="BH72" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="G73" t="n">
         <v>1.85</v>
@@ -14545,10 +14545,10 @@
         <v>2.18</v>
       </c>
       <c r="I73" t="n">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K73" t="n">
         <v>1000</v>
@@ -14569,7 +14569,7 @@
         <v>2.28</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
@@ -14699,7 +14699,7 @@
       </c>
       <c r="BH73" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14893,7 @@
       </c>
       <c r="BH74" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -14930,7 +14930,7 @@
         <v>1.68</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I75" t="n">
         <v>7</v>
@@ -14957,7 +14957,7 @@
         <v>1.98</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R75" t="n">
         <v>0</v>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="BH75" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -15118,22 +15118,22 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2.06</v>
+        <v>2.26</v>
       </c>
       <c r="G76" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H76" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="I76" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="J76" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="K76" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -15148,10 +15148,10 @@
         <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="BH76" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -15312,16 +15312,16 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G77" t="n">
         <v>8.4</v>
       </c>
       <c r="H77" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I77" t="n">
         <v>1.56</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1.57</v>
       </c>
       <c r="J77" t="n">
         <v>4.1</v>
@@ -15351,7 +15351,7 @@
         <v>1.25</v>
       </c>
       <c r="S77" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="T77" t="n">
         <v>2.46</v>
@@ -15417,7 +15417,7 @@
         <v>1000</v>
       </c>
       <c r="AO77" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP77" t="n">
         <v>10</v>
@@ -15447,16 +15447,16 @@
         <v>30</v>
       </c>
       <c r="AY77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ77" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="BA77" t="n">
         <v>32</v>
       </c>
       <c r="BB77" t="n">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="BC77" t="n">
         <v>44</v>
@@ -15465,7 +15465,7 @@
         <v>46</v>
       </c>
       <c r="BE77" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="BF77" t="n">
         <v>55</v>
@@ -15475,7 +15475,7 @@
       </c>
       <c r="BH77" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -15536,7 +15536,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="Q78" t="n">
         <v>1.57</v>
@@ -15669,7 +15669,7 @@
       </c>
       <c r="BH78" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -15730,7 +15730,7 @@
         <v>0</v>
       </c>
       <c r="P79" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q79" t="n">
         <v>2.24</v>
@@ -15863,7 +15863,7 @@
       </c>
       <c r="BH79" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -15894,19 +15894,19 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G80" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H80" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="I80" t="n">
         <v>6.2</v>
       </c>
       <c r="J80" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K80" t="n">
         <v>3.7</v>
@@ -15924,10 +15924,10 @@
         <v>0</v>
       </c>
       <c r="P80" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q80" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="R80" t="n">
         <v>0</v>
@@ -16057,7 +16057,7 @@
       </c>
       <c r="BH80" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -16100,7 +16100,7 @@
         <v>1.68</v>
       </c>
       <c r="J81" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="K81" t="n">
         <v>4.9</v>
@@ -16238,7 +16238,7 @@
         <v>26</v>
       </c>
       <c r="BD81" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BE81" t="n">
         <v>34</v>
@@ -16251,7 +16251,7 @@
       </c>
       <c r="BH81" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -16297,7 +16297,7 @@
         <v>4.6</v>
       </c>
       <c r="K82" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
@@ -16312,7 +16312,7 @@
         <v>1.22</v>
       </c>
       <c r="P82" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q82" t="n">
         <v>1.66</v>
@@ -16327,7 +16327,7 @@
         <v>1.75</v>
       </c>
       <c r="U82" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V82" t="n">
         <v>0</v>
@@ -16339,7 +16339,7 @@
         <v>23</v>
       </c>
       <c r="Y82" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z82" t="n">
         <v>11</v>
@@ -16390,7 +16390,7 @@
         <v>7.4</v>
       </c>
       <c r="AP82" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ82" t="n">
         <v>10</v>
@@ -16402,7 +16402,7 @@
         <v>15</v>
       </c>
       <c r="AT82" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU82" t="n">
         <v>9.800000000000001</v>
@@ -16426,7 +16426,7 @@
         <v>25</v>
       </c>
       <c r="BB82" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BC82" t="n">
         <v>55</v>
@@ -16445,7 +16445,7 @@
       </c>
       <c r="BH82" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -16512,7 +16512,7 @@
         <v>2.16</v>
       </c>
       <c r="R83" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S83" t="n">
         <v>4</v>
@@ -16548,7 +16548,7 @@
         <v>7.2</v>
       </c>
       <c r="AD83" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE83" t="n">
         <v>32</v>
@@ -16563,7 +16563,7 @@
         <v>18</v>
       </c>
       <c r="AI83" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ83" t="n">
         <v>60</v>
@@ -16605,7 +16605,7 @@
         <v>10.5</v>
       </c>
       <c r="AW83" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX83" t="n">
         <v>18.5</v>
@@ -16620,13 +16620,13 @@
         <v>26</v>
       </c>
       <c r="BB83" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="BC83" t="n">
+        <v>32</v>
+      </c>
+      <c r="BD83" t="n">
         <v>29</v>
-      </c>
-      <c r="BD83" t="n">
-        <v>44</v>
       </c>
       <c r="BE83" t="n">
         <v>40</v>
@@ -16639,7 +16639,7 @@
       </c>
       <c r="BH83" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="BH84" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -16867,10 +16867,10 @@
         <v>1.54</v>
       </c>
       <c r="G85" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H85" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I85" t="n">
         <v>7.4</v>
@@ -17027,7 +17027,7 @@
       </c>
       <c r="BH85" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -17058,22 +17058,22 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>3.4</v>
+        <v>1.01</v>
       </c>
       <c r="G86" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H86" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="I86" t="n">
-        <v>2.68</v>
+        <v>1000</v>
       </c>
       <c r="J86" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="K86" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="L86" t="n">
         <v>0</v>
@@ -17088,10 +17088,10 @@
         <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="R86" t="n">
         <v>0</v>
@@ -17221,7 +17221,7 @@
       </c>
       <c r="BH86" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -17252,16 +17252,16 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G87" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="H87" t="n">
         <v>1.58</v>
       </c>
       <c r="I87" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J87" t="n">
         <v>4.2</v>
@@ -17282,10 +17282,10 @@
         <v>0</v>
       </c>
       <c r="P87" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -17415,7 +17415,7 @@
       </c>
       <c r="BH87" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -17455,10 +17455,10 @@
         <v>2.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="J88" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K88" t="n">
         <v>3.85</v>
@@ -17479,7 +17479,7 @@
         <v>1.72</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R88" t="n">
         <v>0</v>
@@ -17609,7 +17609,7 @@
       </c>
       <c r="BH88" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -17640,22 +17640,22 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G89" t="n">
         <v>2.98</v>
       </c>
       <c r="H89" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="I89" t="n">
         <v>3.75</v>
       </c>
       <c r="J89" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K89" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -17673,7 +17673,7 @@
         <v>2.16</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="R89" t="n">
         <v>0</v>
@@ -17803,7 +17803,7 @@
       </c>
       <c r="BH89" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -17834,19 +17834,19 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="G90" t="n">
-        <v>1.75</v>
+        <v>1000</v>
       </c>
       <c r="H90" t="n">
-        <v>2.32</v>
+        <v>1.04</v>
       </c>
       <c r="I90" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="J90" t="n">
-        <v>4.3</v>
+        <v>1.01</v>
       </c>
       <c r="K90" t="n">
         <v>1000</v>
@@ -17864,10 +17864,10 @@
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>2.26</v>
+        <v>1.02</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
@@ -17997,7 +17997,7 @@
       </c>
       <c r="BH90" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -18028,10 +18028,10 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="G91" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H91" t="n">
         <v>2.84</v>
@@ -18191,7 +18191,7 @@
       </c>
       <c r="BH91" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -18222,22 +18222,22 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G92" t="n">
-        <v>2.76</v>
+        <v>870</v>
       </c>
       <c r="H92" t="n">
-        <v>2.76</v>
+        <v>1.04</v>
       </c>
       <c r="I92" t="n">
-        <v>4.2</v>
+        <v>800</v>
       </c>
       <c r="J92" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="K92" t="n">
-        <v>6.6</v>
+        <v>950</v>
       </c>
       <c r="L92" t="n">
         <v>0</v>
@@ -18252,10 +18252,10 @@
         <v>0</v>
       </c>
       <c r="P92" t="n">
-        <v>1.9</v>
+        <v>1.24</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R92" t="n">
         <v>0</v>
@@ -18385,7 +18385,7 @@
       </c>
       <c r="BH92" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -18416,22 +18416,22 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="G93" t="n">
-        <v>2.26</v>
+        <v>700</v>
       </c>
       <c r="H93" t="n">
-        <v>3.6</v>
+        <v>1.04</v>
       </c>
       <c r="I93" t="n">
-        <v>5.7</v>
+        <v>900</v>
       </c>
       <c r="J93" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K93" t="n">
-        <v>6.4</v>
+        <v>950</v>
       </c>
       <c r="L93" t="n">
         <v>0</v>
@@ -18446,10 +18446,10 @@
         <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.7</v>
+        <v>1.01</v>
       </c>
       <c r="R93" t="n">
         <v>0</v>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="BH93" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -18610,22 +18610,22 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2</v>
+        <v>1.04</v>
       </c>
       <c r="G94" t="n">
-        <v>2.74</v>
+        <v>1000</v>
       </c>
       <c r="H94" t="n">
-        <v>3.05</v>
+        <v>1.04</v>
       </c>
       <c r="I94" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="J94" t="n">
-        <v>2.88</v>
+        <v>1.01</v>
       </c>
       <c r="K94" t="n">
-        <v>5.9</v>
+        <v>950</v>
       </c>
       <c r="L94" t="n">
         <v>0</v>
@@ -18640,10 +18640,10 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.34</v>
+        <v>1.01</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -18773,7 +18773,7 @@
       </c>
       <c r="BH94" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -18804,22 +18804,22 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1.17</v>
+        <v>12</v>
       </c>
       <c r="G95" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="H95" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="I95" t="n">
         <v>1.35</v>
       </c>
       <c r="J95" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K95" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="L95" t="n">
         <v>0</v>
@@ -18834,7 +18834,7 @@
         <v>0</v>
       </c>
       <c r="P95" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="Q95" t="n">
         <v>1.64</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="BH95" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -18998,7 +18998,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="G96" t="n">
         <v>1.59</v>
@@ -19007,10 +19007,10 @@
         <v>2.7</v>
       </c>
       <c r="I96" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J96" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K96" t="n">
         <v>1000</v>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="BH96" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -19192,7 +19192,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="G97" t="n">
         <v>1.83</v>
@@ -19201,10 +19201,10 @@
         <v>2.2</v>
       </c>
       <c r="I97" t="n">
-        <v>15.5</v>
+        <v>11.5</v>
       </c>
       <c r="J97" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K97" t="n">
         <v>1000</v>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q97" t="n">
         <v>1.55</v>
@@ -19355,7 +19355,7 @@
       </c>
       <c r="BH97" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -19386,22 +19386,22 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="G98" t="n">
-        <v>1000</v>
+        <v>2.92</v>
       </c>
       <c r="H98" t="n">
-        <v>1.04</v>
+        <v>3.35</v>
       </c>
       <c r="I98" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="J98" t="n">
-        <v>1.01</v>
+        <v>2.54</v>
       </c>
       <c r="K98" t="n">
-        <v>1000</v>
+        <v>4.6</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -19416,10 +19416,10 @@
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>1.04</v>
+        <v>1.39</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="R98" t="n">
         <v>0</v>
@@ -19549,7 +19549,7 @@
       </c>
       <c r="BH98" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -19580,13 +19580,13 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="G99" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H99" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="I99" t="n">
         <v>2.82</v>
@@ -19595,7 +19595,7 @@
         <v>3.15</v>
       </c>
       <c r="K99" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -19610,10 +19610,10 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q99" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="R99" t="n">
         <v>0</v>
@@ -19743,7 +19743,7 @@
       </c>
       <c r="BH99" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -19804,10 +19804,10 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="Q100" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R100" t="n">
         <v>0</v>
@@ -19937,7 +19937,7 @@
       </c>
       <c r="BH100" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -19968,22 +19968,22 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="G101" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="H101" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="I101" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J101" t="n">
         <v>2.9</v>
       </c>
-      <c r="J101" t="n">
-        <v>3</v>
-      </c>
       <c r="K101" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -19998,10 +19998,10 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>1.72</v>
+        <v>1.07</v>
       </c>
       <c r="Q101" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="BH101" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -20168,7 +20168,7 @@
         <v>5.4</v>
       </c>
       <c r="H102" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="I102" t="n">
         <v>1.81</v>
@@ -20192,7 +20192,7 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q102" t="n">
         <v>1.75</v>
@@ -20325,7 +20325,7 @@
       </c>
       <c r="BH102" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -20519,7 +20519,7 @@
       </c>
       <c r="BH103" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -20713,7 +20713,7 @@
       </c>
       <c r="BH104" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -20744,22 +20744,22 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="G105" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="H105" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="I105" t="n">
         <v>13</v>
       </c>
       <c r="J105" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="K105" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -20807,7 +20807,7 @@
         <v>1000</v>
       </c>
       <c r="AA105" t="n">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="AB105" t="n">
         <v>8.4</v>
@@ -20822,7 +20822,7 @@
         <v>250</v>
       </c>
       <c r="AF105" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG105" t="n">
         <v>11</v>
@@ -20846,13 +20846,13 @@
         <v>220</v>
       </c>
       <c r="AN105" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO105" t="n">
         <v>1000</v>
       </c>
       <c r="AP105" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ105" t="n">
         <v>30</v>
@@ -20861,7 +20861,7 @@
         <v>38</v>
       </c>
       <c r="AS105" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AT105" t="n">
         <v>7.8</v>
@@ -20870,10 +20870,10 @@
         <v>11.5</v>
       </c>
       <c r="AV105" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AW105" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AX105" t="n">
         <v>7</v>
@@ -20882,7 +20882,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AZ105" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA105" t="n">
         <v>46</v>
@@ -20894,20 +20894,20 @@
         <v>13.5</v>
       </c>
       <c r="BD105" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="BE105" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BF105" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="BG105" t="n">
         <v>95</v>
       </c>
       <c r="BH105" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -20938,7 +20938,7 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1.3</v>
+        <v>1.04</v>
       </c>
       <c r="G106" t="n">
         <v>1.6</v>
@@ -20947,13 +20947,13 @@
         <v>1.04</v>
       </c>
       <c r="I106" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="J106" t="n">
-        <v>4.5</v>
+        <v>1.01</v>
       </c>
       <c r="K106" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="L106" t="n">
         <v>0</v>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="BH106" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -21141,7 +21141,7 @@
         <v>1.74</v>
       </c>
       <c r="I107" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J107" t="n">
         <v>3.8</v>
@@ -21162,7 +21162,7 @@
         <v>1.35</v>
       </c>
       <c r="P107" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q107" t="n">
         <v>2.1</v>
@@ -21198,7 +21198,7 @@
         <v>17</v>
       </c>
       <c r="AB107" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AC107" t="n">
         <v>8.4</v>
@@ -21273,7 +21273,7 @@
         <v>19.5</v>
       </c>
       <c r="BA107" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BB107" t="n">
         <v>44</v>
@@ -21295,7 +21295,7 @@
       </c>
       <c r="BH107" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -21326,19 +21326,19 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G108" t="n">
         <v>1.82</v>
       </c>
       <c r="H108" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I108" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J108" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K108" t="n">
         <v>4.4</v>
@@ -21356,10 +21356,10 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R108" t="n">
         <v>0</v>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="BH108" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -21520,19 +21520,19 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1.74</v>
+        <v>1.04</v>
       </c>
       <c r="G109" t="n">
-        <v>2.22</v>
+        <v>1000</v>
       </c>
       <c r="H109" t="n">
-        <v>3.95</v>
+        <v>1.04</v>
       </c>
       <c r="I109" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="J109" t="n">
-        <v>3.05</v>
+        <v>1.01</v>
       </c>
       <c r="K109" t="n">
         <v>1000</v>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="BH109" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -21744,7 +21744,7 @@
         <v>1.17</v>
       </c>
       <c r="P110" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="Q110" t="n">
         <v>1.51</v>
@@ -21756,7 +21756,7 @@
         <v>2.2</v>
       </c>
       <c r="T110" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U110" t="n">
         <v>2.02</v>
@@ -21783,7 +21783,7 @@
         <v>44</v>
       </c>
       <c r="AC110" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD110" t="n">
         <v>11.5</v>
@@ -21822,7 +21822,7 @@
         <v>4.1</v>
       </c>
       <c r="AP110" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AQ110" t="n">
         <v>10.5</v>
@@ -21858,26 +21858,26 @@
         <v>24</v>
       </c>
       <c r="BB110" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BC110" t="n">
         <v>13</v>
       </c>
-      <c r="BC110" t="n">
-        <v>12.5</v>
-      </c>
       <c r="BD110" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BE110" t="n">
         <v>12.5</v>
       </c>
       <c r="BF110" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BG110" t="n">
         <v>3.8</v>
       </c>
       <c r="BH110" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -22071,7 +22071,7 @@
       </c>
       <c r="BH111" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -22102,19 +22102,19 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>1.44</v>
+        <v>1.04</v>
       </c>
       <c r="G112" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="H112" t="n">
         <v>1.04</v>
       </c>
       <c r="I112" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="J112" t="n">
-        <v>4</v>
+        <v>1.01</v>
       </c>
       <c r="K112" t="n">
         <v>950</v>
@@ -22265,7 +22265,7 @@
       </c>
       <c r="BH112" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -22459,7 +22459,7 @@
       </c>
       <c r="BH113" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -22490,22 +22490,22 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G114" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H114" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="I114" t="n">
-        <v>1000</v>
+        <v>3.55</v>
       </c>
       <c r="J114" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="K114" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L114" t="n">
         <v>0</v>
@@ -22520,10 +22520,10 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="Q114" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="R114" t="n">
         <v>0</v>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="BH114" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -22684,22 +22684,22 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G115" t="n">
         <v>2.64</v>
       </c>
       <c r="H115" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="I115" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J115" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K115" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L115" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q115" t="n">
         <v>1.74</v>
@@ -22847,7 +22847,7 @@
       </c>
       <c r="BH115" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -22878,19 +22878,19 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.04</v>
+        <v>1.65</v>
       </c>
       <c r="G116" t="n">
-        <v>1000</v>
+        <v>2.14</v>
       </c>
       <c r="H116" t="n">
-        <v>1.04</v>
+        <v>1.88</v>
       </c>
       <c r="I116" t="n">
         <v>1000</v>
       </c>
       <c r="J116" t="n">
-        <v>1.01</v>
+        <v>2.82</v>
       </c>
       <c r="K116" t="n">
         <v>950</v>
@@ -22908,10 +22908,10 @@
         <v>0</v>
       </c>
       <c r="P116" t="n">
-        <v>1.03</v>
+        <v>1.35</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.01</v>
+        <v>2.44</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
       </c>
       <c r="BH116" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -23072,22 +23072,22 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G117" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="H117" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I117" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J117" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K117" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -23102,7 +23102,7 @@
         <v>0</v>
       </c>
       <c r="P117" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q117" t="n">
         <v>2.2</v>
@@ -23235,7 +23235,7 @@
       </c>
       <c r="BH117" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -23266,22 +23266,22 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="G118" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="H118" t="n">
-        <v>2.48</v>
+        <v>1.04</v>
       </c>
       <c r="I118" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J118" t="n">
-        <v>2.8</v>
+        <v>1.01</v>
       </c>
       <c r="K118" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L118" t="n">
         <v>0</v>
@@ -23296,10 +23296,10 @@
         <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>1.61</v>
+        <v>1.04</v>
       </c>
       <c r="Q118" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="R118" t="n">
         <v>0</v>
@@ -23429,7 +23429,7 @@
       </c>
       <c r="BH118" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -23460,22 +23460,22 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="G119" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="H119" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="I119" t="n">
-        <v>3.15</v>
+        <v>2.74</v>
       </c>
       <c r="J119" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="K119" t="n">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="L119" t="n">
         <v>0</v>
@@ -23490,10 +23490,10 @@
         <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R119" t="n">
         <v>0</v>
@@ -23623,7 +23623,7 @@
       </c>
       <c r="BH119" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -23684,7 +23684,7 @@
         <v>0</v>
       </c>
       <c r="P120" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="Q120" t="n">
         <v>1.01</v>
@@ -23817,7 +23817,7 @@
       </c>
       <c r="BH120" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -23854,13 +23854,13 @@
         <v>1.71</v>
       </c>
       <c r="H121" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="I121" t="n">
         <v>9.4</v>
       </c>
       <c r="J121" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K121" t="n">
         <v>4</v>
@@ -23878,10 +23878,10 @@
         <v>0</v>
       </c>
       <c r="P121" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q121" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="R121" t="n">
         <v>0</v>
@@ -24011,7 +24011,7 @@
       </c>
       <c r="BH121" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -24042,19 +24042,19 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="G122" t="n">
         <v>2.14</v>
       </c>
       <c r="H122" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I122" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J122" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K122" t="n">
         <v>5.2</v>
@@ -24072,7 +24072,7 @@
         <v>0</v>
       </c>
       <c r="P122" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="Q122" t="n">
         <v>1.01</v>
@@ -24205,7 +24205,7 @@
       </c>
       <c r="BH122" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -24236,7 +24236,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="G123" t="n">
         <v>2.12</v>
@@ -24248,7 +24248,7 @@
         <v>4.7</v>
       </c>
       <c r="J123" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K123" t="n">
         <v>3.65</v>
@@ -24266,10 +24266,10 @@
         <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="R123" t="n">
         <v>0</v>
@@ -24399,7 +24399,7 @@
       </c>
       <c r="BH123" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -24430,22 +24430,22 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="G124" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H124" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="I124" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="J124" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K124" t="n">
-        <v>6.8</v>
+        <v>3.85</v>
       </c>
       <c r="L124" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="P124" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Q124" t="n">
         <v>1.96</v>
@@ -24593,7 +24593,7 @@
       </c>
       <c r="BH124" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -24624,22 +24624,22 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="G125" t="n">
         <v>2.2</v>
       </c>
       <c r="H125" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="I125" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J125" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K125" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -24787,7 +24787,7 @@
       </c>
       <c r="BH125" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -24818,19 +24818,19 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="G126" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H126" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="I126" t="n">
         <v>1000</v>
       </c>
       <c r="J126" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="K126" t="n">
         <v>950</v>
@@ -24848,10 +24848,10 @@
         <v>0</v>
       </c>
       <c r="P126" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="Q126" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="R126" t="n">
         <v>0</v>
@@ -24981,7 +24981,7 @@
       </c>
       <c r="BH126" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
@@ -25175,7 +25175,7 @@
       </c>
       <c r="BH127" t="inlineStr">
         <is>
-          <t>2026-02-26 03:36:31</t>
+          <t>2026-02-26 05:54:37</t>
         </is>
       </c>
     </row>
